--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2452153.358241101</v>
+        <v>2455703.918028495</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256411</v>
+        <v>6239134.533256416</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069181</v>
+        <v>840694.9721069183</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>278.7329666858698</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>313.6918910077509</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.0766988305491</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.14167849255917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>381.9173063785158</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>36.06001645436979</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586812</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>17.23430169187254</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>57.76187302956034</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212044</v>
       </c>
       <c r="H11" t="n">
         <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>133.6651290239679</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>72.94626686819488</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
@@ -1581,7 +1581,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>160.7000180555315</v>
+        <v>39.52676478343903</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
@@ -1824,7 +1824,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4482050673214</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2101,7 +2101,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>34.32389483613349</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.19469826741779</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>64.63965764608854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>55.46111215384306</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>130.4482050673214</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>250.5924060790421</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.81869974802212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>250.9011530022395</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>182.962808017743</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.3168929793111</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>64.21168800535631</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>80.15653200148908</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.06731754002394</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
@@ -3717,19 +3717,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>52.28485547045359</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>130.4482050673214</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>28.81869974802212</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>64.21168800535652</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249362</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>906.9212171249362</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>906.9212171249362</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>524.2694537927</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.5111271432434</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.15289212512</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1717.15289212512</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1717.15289212512</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1331.364639526875</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>920.3787347372679</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.6036777892721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2605.696142503898</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2605.696142503898</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.15289212512</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050018</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064339</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2013.317548404538</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1644.355031464126</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.089332857375</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>900.3010802591311</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>489.3151754695236</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>71.35136736771045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4901,25 +4901,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K11" t="n">
-        <v>765.1137348815558</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L11" t="n">
-        <v>1200.738998111603</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M11" t="n">
-        <v>2162.143875059191</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N11" t="n">
-        <v>2691.499835319966</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5120,19 +5120,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439725</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.3935702982815</v>
+        <v>506.0844756480649</v>
       </c>
       <c r="C13" t="n">
-        <v>546.3935702982815</v>
+        <v>337.148292720158</v>
       </c>
       <c r="D13" t="n">
-        <v>411.3782884558896</v>
+        <v>337.148292720158</v>
       </c>
       <c r="E13" t="n">
-        <v>263.4651948734965</v>
+        <v>337.148292720158</v>
       </c>
       <c r="F13" t="n">
         <v>263.4651948734965</v>
@@ -5202,16 +5202,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
@@ -5229,22 +5229,22 @@
         <v>1720.613957833929</v>
       </c>
       <c r="T13" t="n">
-        <v>1720.613957833929</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U13" t="n">
-        <v>1431.508653375956</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V13" t="n">
-        <v>1176.824165170069</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W13" t="n">
-        <v>1176.824165170069</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="X13" t="n">
-        <v>948.8346142720513</v>
+        <v>726.877054791595</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.0420351285212</v>
+        <v>506.0844756480649</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5287,19 +5287,19 @@
         <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2600.615835417406</v>
+        <v>2665.675091091658</v>
       </c>
       <c r="N14" t="n">
-        <v>3562.945250846046</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O14" t="n">
-        <v>4049.465812105078</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5357,19 +5357,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439725</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C16" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D16" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
         <v>95.71766921524075</v>
@@ -5439,16 +5439,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1750.755399411528</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T16" t="n">
-        <v>1528.797839931071</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U16" t="n">
-        <v>1239.692535473098</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>1239.692535473098</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>950.275365436137</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>722.2858145381197</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.2858145381197</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612028</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.817951496195</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N17" t="n">
         <v>3370.552243872424</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5594,19 +5594,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439725</v>
@@ -5676,16 +5676,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O19" t="n">
         <v>1611.825859961355</v>
@@ -5737,13 +5737,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L20" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2451.514037751685</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>2980.869998012461</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5831,19 +5831,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439725</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.4651948734965</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="C22" t="n">
-        <v>263.4651948734965</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="D22" t="n">
-        <v>263.4651948734965</v>
+        <v>130.38827005982</v>
       </c>
       <c r="E22" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
         <v>95.71766921524075</v>
@@ -5913,16 +5913,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
         <v>1611.825859961355</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T22" t="n">
-        <v>1727.102752446104</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.997447988131</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V22" t="n">
-        <v>1183.312959782244</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W22" t="n">
-        <v>893.8957897452837</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X22" t="n">
-        <v>665.9062388472663</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y22" t="n">
-        <v>445.1136597037362</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="23">
@@ -5974,43 +5974,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496195</v>
+        <v>1543.411851794608</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443783</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872424</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6068,19 +6068,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439725</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.5180172137391</v>
+        <v>579.0158907130842</v>
       </c>
       <c r="C25" t="n">
-        <v>413.5818342858322</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D25" t="n">
-        <v>263.4651948734965</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E25" t="n">
-        <v>263.4651948734965</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F25" t="n">
-        <v>263.4651948734965</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6150,16 +6150,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O25" t="n">
         <v>1611.825859961355</v>
@@ -6174,25 +6174,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.77411916334</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>1628.77411916334</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.668814705367</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>1274.37623122447</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W25" t="n">
-        <v>984.959061187509</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="X25" t="n">
-        <v>984.959061187509</v>
+        <v>635.0372161210065</v>
       </c>
       <c r="Y25" t="n">
-        <v>764.1664820439788</v>
+        <v>579.0158907130842</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612028</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496195</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
         <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439725</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G28" t="n">
         <v>95.71766921524075</v>
@@ -6387,16 +6387,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
         <v>1611.825859961355</v>
@@ -6411,25 +6411,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.249922329876</v>
+        <v>1437.997447988131</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.565434123989</v>
+        <v>1183.312959782244</v>
       </c>
       <c r="W28" t="n">
-        <v>726.1482640870279</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X28" t="n">
-        <v>498.1587131890105</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3661340454805</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066559</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L29" t="n">
-        <v>1354.237307536702</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M29" t="n">
-        <v>2315.64218448429</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N29" t="n">
-        <v>3277.97159991293</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,19 +6542,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439725</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G31" t="n">
         <v>95.71766921524075</v>
@@ -6624,16 +6624,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N31" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O31" t="n">
         <v>1611.825859961355</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682884</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U31" t="n">
-        <v>1117.71125522491</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V31" t="n">
-        <v>863.0267670190236</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W31" t="n">
-        <v>573.6095969820631</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X31" t="n">
-        <v>345.6200460840457</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y31" t="n">
-        <v>124.8274669405156</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.642956557056</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M32" t="n">
-        <v>2038.029435346739</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552855</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O32" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439725</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
         <v>95.71766921524075</v>
@@ -6861,16 +6861,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O34" t="n">
         <v>1611.825859961355</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1728.267732783031</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.310173302574</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1217.204868844601</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V34" t="n">
-        <v>962.5203806387142</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W34" t="n">
-        <v>673.1032106017535</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X34" t="n">
-        <v>445.1136597037362</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y34" t="n">
-        <v>445.1136597037362</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496195</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443783</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,19 +7016,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
         <v>2136.002693439725</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>508.7493060675617</v>
+        <v>954.8576438298521</v>
       </c>
       <c r="C37" t="n">
-        <v>508.7493060675617</v>
+        <v>785.9214609019452</v>
       </c>
       <c r="D37" t="n">
-        <v>508.7493060675617</v>
+        <v>635.8048214896095</v>
       </c>
       <c r="E37" t="n">
-        <v>508.7493060675617</v>
+        <v>487.8917279072164</v>
       </c>
       <c r="F37" t="n">
-        <v>508.7493060675617</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G37" t="n">
         <v>341.001780409306</v>
@@ -7098,16 +7098,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
         <v>1611.825859961355</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U37" t="n">
-        <v>1117.71125522491</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V37" t="n">
-        <v>863.0267670190236</v>
+        <v>1465.067393010343</v>
       </c>
       <c r="W37" t="n">
-        <v>573.6095969820631</v>
+        <v>1175.650222973382</v>
       </c>
       <c r="X37" t="n">
-        <v>508.7493060675617</v>
+        <v>1175.650222973382</v>
       </c>
       <c r="Y37" t="n">
-        <v>508.7493060675617</v>
+        <v>954.8576438298521</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.029435346739</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552855</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7253,19 +7253,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439725</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>345.6200460840457</v>
+        <v>749.6910275032271</v>
       </c>
       <c r="C40" t="n">
-        <v>176.6838631561388</v>
+        <v>580.7548445753202</v>
       </c>
       <c r="D40" t="n">
-        <v>176.6838631561388</v>
+        <v>430.6382051629845</v>
       </c>
       <c r="E40" t="n">
-        <v>176.6838631561388</v>
+        <v>282.7251115805914</v>
       </c>
       <c r="F40" t="n">
-        <v>176.6838631561388</v>
+        <v>282.7251115805914</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>114.9775859223356</v>
       </c>
       <c r="H40" t="n">
         <v>95.71766921524075</v>
@@ -7335,16 +7335,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O40" t="n">
         <v>1611.825859961355</v>
@@ -7359,25 +7359,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.77411916334</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T40" t="n">
         <v>1406.816559682884</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.71125522491</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190236</v>
+        <v>1152.132071476997</v>
       </c>
       <c r="W40" t="n">
-        <v>573.6095969820631</v>
+        <v>1152.132071476997</v>
       </c>
       <c r="X40" t="n">
-        <v>345.6200460840457</v>
+        <v>1152.132071476997</v>
       </c>
       <c r="Y40" t="n">
-        <v>345.6200460840457</v>
+        <v>931.3394923334669</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036599</v>
+        <v>855.33139720366</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7080858612028</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496195</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N41" t="n">
-        <v>3251.012327070182</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,19 +7490,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439725</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>714.1661687439514</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>545.2299858160445</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>395.1133464037088</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>247.2002528213156</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>247.2002528213156</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>247.2002528213156</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7572,16 +7572,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O43" t="n">
         <v>1611.825859961355</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1781.312786268305</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.355226787849</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.249922329876</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>1344.596763615739</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>1344.596763615739</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>1116.607212717721</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>895.8146335741911</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612028</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496195</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443783</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872424</v>
+        <v>3258.482747150013</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,19 +7727,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439725</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.8274669405156</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="C46" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7809,16 +7809,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O46" t="n">
         <v>1611.825859961355</v>
@@ -7833,25 +7833,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.77411916334</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
         <v>1406.816559682884</v>
       </c>
       <c r="U46" t="n">
-        <v>1117.71125522491</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V46" t="n">
-        <v>863.0267670190236</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W46" t="n">
-        <v>573.6095969820631</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X46" t="n">
-        <v>345.6200460840457</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.8274669405156</v>
+        <v>508.7493060675617</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>346.1341956394003</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>150.6078764300206</v>
+        <v>216.3242963030026</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>260.0527905534096</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>53.84110201061765</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>21.98878306823462</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534096</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534096</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>353.568592532696</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,10 +11071,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>316.5995337026488</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534096</v>
+        <v>373.2543023942276</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.95034399424443</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>72.47478115473636</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
@@ -23673,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>29.84002716182275</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>60.09184015003279</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>112.1100678104357</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>126.5432856182343</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>187.4979856777395</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>163.1235411982517</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>60.09184015003279</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>35.62184533435141</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0132804339152</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>35.62184533435152</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>7.577237199611176</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.82075034451688</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>161.4979673836808</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>85.91351840018409</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>126.0810502425401</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>92.86351231211042</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>60.09184015003279</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4281213506057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>161.4979673836806</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.903442697</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.903442697</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.903442697</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.903442697</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.9034426969</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.9034426969</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815919.9034426973</v>
+        <v>815919.9034426971</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815919.9034426971</v>
+        <v>815919.903442697</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815919.9034426973</v>
+        <v>815919.9034426971</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
+        <v>594763.9530955391</v>
+      </c>
+      <c r="F2" t="n">
+        <v>594763.9530955394</v>
+      </c>
+      <c r="G2" t="n">
+        <v>594763.9530955394</v>
+      </c>
+      <c r="H2" t="n">
         <v>594763.9530955392</v>
       </c>
-      <c r="F2" t="n">
-        <v>594763.9530955391</v>
-      </c>
-      <c r="G2" t="n">
-        <v>594763.9530955391</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>594763.9530955392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>594763.9530955394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>594763.9530955392</v>
+      </c>
+      <c r="L2" t="n">
+        <v>594763.9530955394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>594763.9530955394</v>
+      </c>
+      <c r="N2" t="n">
         <v>594763.9530955395</v>
       </c>
-      <c r="I2" t="n">
-        <v>594763.9530955391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>594763.9530955389</v>
-      </c>
-      <c r="K2" t="n">
-        <v>594763.9530955394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>594763.9530955392</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>594763.9530955395</v>
       </c>
-      <c r="N2" t="n">
-        <v>594763.9530955392</v>
-      </c>
-      <c r="O2" t="n">
-        <v>594763.9530955394</v>
-      </c>
       <c r="P2" t="n">
-        <v>594763.9530955394</v>
+        <v>594763.9530955395</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.096751828</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249252.2262721707</v>
+        <v>-249252.2262721709</v>
       </c>
       <c r="C6" t="n">
-        <v>340715.6529423738</v>
+        <v>340715.6529423734</v>
       </c>
       <c r="D6" t="n">
-        <v>340715.6529423731</v>
+        <v>340715.6529423735</v>
       </c>
       <c r="E6" t="n">
-        <v>-233848.561827592</v>
+        <v>-233218.0405985121</v>
       </c>
       <c r="F6" t="n">
-        <v>474402.5349242359</v>
+        <v>475033.0561533163</v>
       </c>
       <c r="G6" t="n">
-        <v>474402.5349242359</v>
+        <v>475033.0561533163</v>
       </c>
       <c r="H6" t="n">
-        <v>474402.5349242362</v>
+        <v>475033.0561533162</v>
       </c>
       <c r="I6" t="n">
-        <v>474402.5349242359</v>
+        <v>475033.0561533162</v>
       </c>
       <c r="J6" t="n">
-        <v>297979.3157316429</v>
+        <v>298609.8369607233</v>
       </c>
       <c r="K6" t="n">
-        <v>474402.5349242361</v>
+        <v>475033.0561533162</v>
       </c>
       <c r="L6" t="n">
-        <v>474402.534924236</v>
+        <v>475033.0561533163</v>
       </c>
       <c r="M6" t="n">
-        <v>344272.2949548268</v>
+        <v>344902.8161839069</v>
       </c>
       <c r="N6" t="n">
-        <v>474402.534924236</v>
+        <v>475033.0561533164</v>
       </c>
       <c r="O6" t="n">
-        <v>474402.5349242361</v>
+        <v>475033.0561533164</v>
       </c>
       <c r="P6" t="n">
-        <v>474402.5349242361</v>
+        <v>475033.0561533164</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731068</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545547</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>128.1430790558417</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100.092279013044</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.4462995060419</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.4429748595356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>31.86686364227916</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>138.3556963546017</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060692</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>75.95753524357737</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>306.6884710724846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>194.3757702942677</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
         <v>165.0965164000028</v>
@@ -31764,31 +31764,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
@@ -31837,7 +31837,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690591</v>
@@ -31846,34 +31846,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279595</v>
@@ -31943,13 +31943,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
         <v>165.0965164000028</v>
@@ -32001,31 +32001,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
@@ -32074,7 +32074,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690591</v>
@@ -32083,34 +32083,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279595</v>
@@ -32180,13 +32180,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
         <v>165.0965164000028</v>
@@ -32238,31 +32238,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
@@ -32311,7 +32311,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690591</v>
@@ -32320,34 +32320,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279595</v>
@@ -32417,13 +32417,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I20" t="n">
         <v>165.0965164000028</v>
@@ -32475,31 +32475,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R20" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
@@ -32548,7 +32548,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690591</v>
@@ -32557,34 +32557,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N22" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279595</v>
@@ -32654,13 +32654,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I23" t="n">
         <v>165.0965164000028</v>
@@ -32712,31 +32712,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R23" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
@@ -32785,7 +32785,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690591</v>
@@ -32794,34 +32794,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N25" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279595</v>
@@ -32891,13 +32891,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I26" t="n">
         <v>165.0965164000028</v>
@@ -32949,31 +32949,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R26" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
@@ -33022,7 +33022,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690591</v>
@@ -33031,34 +33031,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N28" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279595</v>
@@ -33128,13 +33128,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I29" t="n">
         <v>165.0965164000028</v>
@@ -33186,31 +33186,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R29" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
@@ -33259,7 +33259,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690591</v>
@@ -33268,34 +33268,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N31" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279595</v>
@@ -33365,13 +33365,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I32" t="n">
         <v>165.0965164000028</v>
@@ -33423,31 +33423,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R32" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
@@ -33496,7 +33496,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690591</v>
@@ -33505,34 +33505,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N34" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279595</v>
@@ -33602,13 +33602,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I35" t="n">
         <v>165.0965164000028</v>
@@ -33660,31 +33660,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R35" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
@@ -33733,7 +33733,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690591</v>
@@ -33742,34 +33742,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N37" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279595</v>
@@ -33839,13 +33839,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I38" t="n">
         <v>165.0965164000028</v>
@@ -33897,31 +33897,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R38" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
@@ -33970,7 +33970,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690591</v>
@@ -33979,34 +33979,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N40" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279595</v>
@@ -34076,13 +34076,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I41" t="n">
         <v>165.0965164000028</v>
@@ -34134,31 +34134,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R41" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
@@ -34207,7 +34207,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690591</v>
@@ -34216,34 +34216,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N43" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279595</v>
@@ -34313,13 +34313,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I44" t="n">
         <v>165.0965164000028</v>
@@ -34371,31 +34371,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R44" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
@@ -34444,7 +34444,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690591</v>
@@ -34453,34 +34453,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N46" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279595</v>
@@ -34550,13 +34550,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535759</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141885</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
-        <v>837.5691060020587</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389735</v>
@@ -35585,10 +35585,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M14" t="n">
-        <v>672.2103802579838</v>
+        <v>737.9268001309659</v>
       </c>
       <c r="N14" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626583</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389735</v>
@@ -35822,10 +35822,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L17" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N17" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O17" t="n">
-        <v>751.487700916068</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106822</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389735</v>
@@ -36059,10 +36059,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L20" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N20" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>545.276012373276</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
         <v>152.4976168106822</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389735</v>
@@ -36296,10 +36296,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L23" t="n">
-        <v>857.686732964639</v>
+        <v>462.0143014824233</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O23" t="n">
-        <v>751.487700916068</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q24" t="n">
         <v>152.4976168106822</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389735</v>
@@ -36533,10 +36533,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N26" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
-        <v>751.487700916068</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
         <v>152.4976168106822</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389735</v>
@@ -36770,10 +36770,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L29" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N29" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O29" t="n">
-        <v>845.0035028953544</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
         <v>152.4976168106822</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389735</v>
@@ -37007,10 +37007,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
-        <v>440.0255184141885</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N32" t="n">
-        <v>625.4051254607227</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P33" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q33" t="n">
         <v>152.4976168106822</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389735</v>
@@ -37244,10 +37244,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>972.049914574384</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O35" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P36" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106822</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389735</v>
@@ -37481,10 +37481,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N38" t="n">
-        <v>625.4051254607227</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254037</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P39" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q39" t="n">
         <v>152.4976168106822</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389735</v>
@@ -37718,10 +37718,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L41" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>851.3025238650487</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254037</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
         <v>152.4976168106822</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389735</v>
@@ -37955,10 +37955,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O44" t="n">
-        <v>751.487700916068</v>
+        <v>864.689212756886</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P45" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
         <v>152.4976168106822</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389735</v>
@@ -38192,10 +38192,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
